--- a/option.xlsx
+++ b/option.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailsjlueducn-my.sharepoint.com/personal/tqwang21_mails_jlu_edu_cn/Documents/文档/文档/Github/navigation_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{6A052DFE-4207-4F86-A5C1-1D8E0F17106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65C1D67B-589F-48F1-AB84-164B6C4FE3DC}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="8_{6A052DFE-4207-4F86-A5C1-1D8E0F17106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{155BA844-87E2-484A-B207-8945A09868FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="option" sheetId="1" r:id="rId1"/>
+    <sheet name="常用网站" sheetId="1" r:id="rId1"/>
+    <sheet name="办公工具" sheetId="3" r:id="rId2"/>
+    <sheet name="视频网站" sheetId="2" r:id="rId3"/>
+    <sheet name="资源搜索" sheetId="4" r:id="rId4"/>
+    <sheet name="学校网站" sheetId="5" r:id="rId5"/>
+    <sheet name="学术网站" sheetId="10" r:id="rId6"/>
+    <sheet name="游戏相关" sheetId="6" r:id="rId7"/>
+    <sheet name="程序员" sheetId="11" r:id="rId8"/>
+    <sheet name="社交网站" sheetId="8" r:id="rId9"/>
+    <sheet name="数码跑分" sheetId="7" r:id="rId10"/>
+    <sheet name="导航页" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="196">
   <si>
     <t>https://www.bilibili.com</t>
   </si>
@@ -631,6 +641,64 @@
   </si>
   <si>
     <t>欢迎使用 iKuuuVPN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.80wzbk.com/uploads/logo/20200909/20200909104816_763.png</t>
+  </si>
+  <si>
+    <t>163邮箱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>163网易免费邮-你的专业电子邮局</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/OIP.LmWbO-vKKZxb9_W4CGVkOgHaHa?pid=ImgDet&amp;w=894&amp;h=894&amp;rs=1</t>
+  </si>
+  <si>
+    <t>steam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>G胖的微笑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/OIP.3CL8GgA2FkF3zwaFPBfm_gHaHa?pid=ImgDet&amp;w=900&amp;h=900&amp;rs=1</t>
+  </si>
+  <si>
+    <t>Epic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎来到Epic游戏商城</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mail.163.com/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://epicgames.com/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://videocardz.com/</t>
+  </si>
+  <si>
+    <t>https://tse2-mm.cn.bing.net/th/id/OIP-C.eDLOeKulH6vWJvHGSHZ-uAAAAA?pid=ImgDet&amp;rs=1</t>
+  </si>
+  <si>
+    <t>Videocardz</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数码资讯聚集地</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1303,6 +1371,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1602,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1618,697 +1690,933 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
+      <c r="A6" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" t="s">
-        <v>174</v>
-      </c>
-      <c r="D41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" t="s">
-        <v>178</v>
-      </c>
-      <c r="C42" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>142</v>
-      </c>
-      <c r="B43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>145</v>
-      </c>
-      <c r="B44" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>150</v>
-      </c>
-      <c r="B47" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>165</v>
-      </c>
-      <c r="B49" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" xr:uid="{0A2A227C-447C-48D9-8326-B27871E68E1E}"/>
-    <hyperlink ref="A23" r:id="rId2" xr:uid="{0483DE2F-6E12-42FA-9291-43FDBCEB41F5}"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{0A2A227C-447C-48D9-8326-B27871E68E1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687036B1-00F0-45DE-AFD2-3D7C987EF7D1}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B824978-CF9B-4EE7-8220-F7FA8D248EE5}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1060A421-6373-42FB-B541-35DA081696A4}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C436FAA0-82BA-4F4A-A329-BC81E135CC03}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68B3FA4-4A17-4F7A-AD46-0A05445CD253}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D7A818-0C91-4616-82A3-32441E237D55}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0F8CB9-8A16-4562-B1E4-BFE9075D010C}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE0828D-32CE-4E98-9846-7CBA763EF0B3}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA20531-30AD-43B2-9501-05814E56D08F}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{9FD6484A-3E02-40A2-A20D-A89DA7BBBB19}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB7EE10-2394-4DC6-BC26-9DF495B27F85}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{0483DE2F-6E12-42FA-9291-43FDBCEB41F5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6FF0D2-E6E8-4764-963A-4C00982E61E5}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.875" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/option.xlsx
+++ b/option.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailsjlueducn-my.sharepoint.com/personal/tqwang21_mails_jlu_edu_cn/Documents/文档/文档/Github/navigation_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="8_{6A052DFE-4207-4F86-A5C1-1D8E0F17106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{155BA844-87E2-484A-B207-8945A09868FE}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="8_{6A052DFE-4207-4F86-A5C1-1D8E0F17106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5111E94B-4751-4037-8D98-67C68F3792E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常用网站" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="200">
   <si>
     <t>https://www.bilibili.com</t>
   </si>
@@ -699,6 +699,20 @@
   </si>
   <si>
     <t>数码资讯聚集地</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sci-hub.hkvisa.net/</t>
+  </si>
+  <si>
+    <t>https://pic3.zhimg.com/50/b283f3a4653edde9134b505e964ee3fc_720w.png?source=54b3c3a5</t>
+  </si>
+  <si>
+    <t>SCI-hub</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文下载网站</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1676,7 +1690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2128,7 +2142,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -2334,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE0828D-32CE-4E98-9846-7CBA763EF0B3}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2382,6 +2396,20 @@
       </c>
       <c r="D3" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/option.xlsx
+++ b/option.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailsjlueducn-my.sharepoint.com/personal/tqwang21_mails_jlu_edu_cn/Documents/文档/文档/Github/navigation_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="8_{6A052DFE-4207-4F86-A5C1-1D8E0F17106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5111E94B-4751-4037-8D98-67C68F3792E8}"/>
+  <xr:revisionPtr revIDLastSave="355" documentId="8_{6A052DFE-4207-4F86-A5C1-1D8E0F17106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71BC8FDE-FE75-4AE1-95F3-A809DCB6BDB5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1470" yWindow="1470" windowWidth="25830" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常用网站" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="205">
   <si>
     <t>https://www.bilibili.com</t>
   </si>
@@ -713,6 +713,36 @@
   </si>
   <si>
     <t>论文下载网站</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/</t>
+  </si>
+  <si>
+    <t>https://p1.ssl.qhimg.com/t01cf7f93a00e61e5e9.jpg</t>
+  </si>
+  <si>
+    <t>哔哩哔哩动画</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>哔哩哔哩 (゜-゜)つロ 干杯~-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bilibili</t>
+    </r>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -720,7 +750,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +919,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1318,7 +1356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1326,6 +1364,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1688,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1702,94 +1743,113 @@
     <col min="4" max="4" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>172</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>169</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>176</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>175</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>163</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{0A2A227C-447C-48D9-8326-B27871E68E1E}"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{0A2A227C-447C-48D9-8326-B27871E68E1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -2350,7 +2410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE0828D-32CE-4E98-9846-7CBA763EF0B3}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/option.xlsx
+++ b/option.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailsjlueducn-my.sharepoint.com/personal/tqwang21_mails_jlu_edu_cn/Documents/文档/文档/Github/navigation_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="355" documentId="8_{6A052DFE-4207-4F86-A5C1-1D8E0F17106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71BC8FDE-FE75-4AE1-95F3-A809DCB6BDB5}"/>
+  <xr:revisionPtr revIDLastSave="418" documentId="8_{6A052DFE-4207-4F86-A5C1-1D8E0F17106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44616557-C52A-4102-B3CC-0D0C0D8337D5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1470" yWindow="1470" windowWidth="25830" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常用网站" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="228">
   <si>
     <t>https://www.bilibili.com</t>
   </si>
@@ -86,9 +86,6 @@
     <t>https://kgithub.com/</t>
   </si>
   <si>
-    <t>https://api.iowen.cn/favicon/github.com.png</t>
-  </si>
-  <si>
     <t>Github镜像站</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>http://live.yj1211.work/index/home/recommend</t>
   </si>
   <si>
-    <t>http://live.yj1211.work/favicon.ico</t>
-  </si>
-  <si>
     <t>直播聚合</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -309,9 +303,6 @@
     <t>https://www.byhy.net/</t>
   </si>
   <si>
-    <t>https://cdn2.byhy.net/imgs/logo01.png</t>
-  </si>
-  <si>
     <t>白夜黑羽</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -727,7 +718,7 @@
   </si>
   <si>
     <r>
-      <t>哔哩哔哩 (゜-゜)つロ 干杯~-</t>
+      <t>哔哩哔哩 (゜-゜)つロ干杯~-</t>
     </r>
     <r>
       <rPr>
@@ -740,9 +731,99 @@
       </rPr>
       <t>bilibili</t>
     </r>
-  </si>
-  <si>
-    <t>d</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://movie.douban.com/</t>
+  </si>
+  <si>
+    <t>https://ts1.cn.mm.bing.net/th/id/R-C.4c3df409b14d001fdd268c6c271c7454?rik=vCcAcN0hIJAzvw&amp;riu=http%3a%2f%2fwww.kuaipng.com%2fUploads%2fpic%2fw%2f2020%2f06-06%2f84553%2fwater_84553_698_698_.png&amp;ehk=7izRcGrY9HMi62DN254O9ArGhCKw16m%2fzqT%2fVr9vTOA%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>豆瓣</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供图书、电影、音乐唱片的推荐、评论和价格比较，以及城市独特的文化生活</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tieba.baidu.com/</t>
+  </si>
+  <si>
+    <t>https://ts1.cn.mm.bing.net/th/id/R-C.fae3a55a2fc7e26dfbf4e7c93f5f1464?rik=dhOpNfCuJwPiYg&amp;riu=http%3a%2f%2fwww.kuaipng.com%2fUploads%2fpic%2fw%2f2020%2f06-11%2f85084%2fwater_85084_698_698_.png&amp;ehk=BIqNrQJp9YZ80fV7p0LncA7d4n9Z5YjfEpihbOQDYuk%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>百度贴吧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度贴吧——全球最大的中文社区</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.wuji7.com/</t>
+  </si>
+  <si>
+    <t>https://cn.bing.com/images/search?view=detailV2&amp;ccid=iyKUQEol&amp;id=5392859FA2A1271B7EA86B70569B1407F1B583E0&amp;thid=OIP.iyKUQEolu5F1pIm-gvaOqgHaHa&amp;mediaurl=https%3a%2f%2fpic2.zhimg.com%2f50%2fv2-fa36c32975c7bf4555d62f9fd2629fc2_xs.jpg%3fsource%3d57bbeac9&amp;exph=640&amp;expw=640&amp;q=%e6%97%a0%e6%9e%81%e5%bd%b1%e8%a7%86&amp;simid=607992740592157048&amp;FORM=IRPRST&amp;ck=D8627C1F28AFC12920A6DD487931AF34&amp;selectedIndex=10&amp;qft=+filterui%3aaspect-square</t>
+  </si>
+  <si>
+    <t>无极影视</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.freeok.vip/</t>
+  </si>
+  <si>
+    <t>https://www.yinlula.com/uploads/website/230412/17511257080.jpg</t>
+  </si>
+  <si>
+    <t>FreeOK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI很好看，速度也很快</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度完全看源，备选</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.51miz.com/Element/00/77/76/82/c724ec62_E777682_e6cce56a.png</t>
+  </si>
+  <si>
+    <t>https://bpic.588ku.com/element_pic/20/06/30/f8efc6337b5427689af9838e4fdc3ec2.jpg</t>
+  </si>
+  <si>
+    <t>https://ts1.cn.mm.bing.net/th/id/R-C.20231e4e72c4e8d7e844cdc306e6c602?rik=n6vgG1jUdfVksg&amp;riu=http%3a%2f%2fbpic.588ku.com%2felement_pic%2f00%2f85%2f53%2f1156e916d95db0c.jpg&amp;ehk=4zUTD%2bTinquF%2b5oogW%2fw6ojTZaWGveIo%2fKc2ZcJ4Mbo%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0&amp;sres=1&amp;sresct=1</t>
+  </si>
+  <si>
+    <t>http://www.yilonghd.com/detail/id-46411.html</t>
+  </si>
+  <si>
+    <t>https://ts1.cn.mm.bing.net/th/id/R-C.a78c97a5d800b422f7587419ee2322e6?rik=dzYBIKEIWUrH3g&amp;riu=http%3a%2f%2fpic.616pic.com%2fys_bnew_img%2f00%2f18%2f05%2f5a3WO9Mp7O.jpg&amp;ehk=sjKjY671fegwSX1uXDpzIzA4LMu6aZC2Txgo6ZYGJd0%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>一龙影视</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持下载！！！！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bimiacg4.net/</t>
+  </si>
+  <si>
+    <t>https://bpic.588ku.com/element_origin_min_pic/19/05/06/646aa1f782e353e8043404b1d20ff6f2.jpg</t>
+  </si>
+  <si>
+    <t>哔咪动漫</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>看动漫专属</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1356,7 +1437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1364,9 +1445,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1729,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1743,26 +1821,26 @@
     <col min="4" max="4" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" t="s">
         <v>200</v>
       </c>
-      <c r="B1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1771,85 +1849,108 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D8" t="s">
         <v>176</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F9" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{0A2A227C-447C-48D9-8326-B27871E68E1E}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{0A2A227C-447C-48D9-8326-B27871E68E1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -1868,72 +1969,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
         <v>143</v>
       </c>
-      <c r="C4" t="s">
-        <v>146</v>
-      </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" t="s">
         <v>192</v>
-      </c>
-      <c r="B5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1954,58 +2055,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2018,13 +2119,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1060A421-6373-42FB-B541-35DA081696A4}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="44.5" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2043,72 +2147,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2122,13 +2226,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68B3FA4-4A17-4F7A-AD46-0A05445CD253}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2146,44 +2256,100 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
         <v>76</v>
       </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2204,128 +2370,128 @@
   <sheetData>
     <row r="1" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
         <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s">
-        <v>101</v>
-      </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
         <v>102</v>
       </c>
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
         <v>104</v>
       </c>
-      <c r="B6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" t="s">
-        <v>107</v>
-      </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2346,58 +2512,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2418,58 +2584,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
         <v>132</v>
-      </c>
-      <c r="B3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" t="s">
         <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2493,44 +2659,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
         <v>183</v>
-      </c>
-      <c r="B1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2547,51 +2713,51 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" t="s">
         <v>79</v>
-      </c>
-      <c r="C1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2599,13 +2765,13 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2635,72 +2801,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
         <v>149</v>
       </c>
-      <c r="B2" t="s">
-        <v>152</v>
-      </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
         <v>150</v>
       </c>
-      <c r="B3" t="s">
-        <v>153</v>
-      </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
         <v>151</v>
       </c>
-      <c r="B4" t="s">
-        <v>154</v>
-      </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" t="s">
         <v>164</v>
-      </c>
-      <c r="C5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/option.xlsx
+++ b/option.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailsjlueducn-my.sharepoint.com/personal/tqwang21_mails_jlu_edu_cn/Documents/文档/文档/Github/navigation_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="418" documentId="8_{6A052DFE-4207-4F86-A5C1-1D8E0F17106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44616557-C52A-4102-B3CC-0D0C0D8337D5}"/>
+  <xr:revisionPtr revIDLastSave="487" documentId="8_{6A052DFE-4207-4F86-A5C1-1D8E0F17106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06BE2DFB-093D-4A2B-9F32-2531E1370555}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常用网站" sheetId="1" r:id="rId1"/>
-    <sheet name="办公工具" sheetId="3" r:id="rId2"/>
+    <sheet name="在线工具" sheetId="3" r:id="rId2"/>
     <sheet name="视频网站" sheetId="2" r:id="rId3"/>
     <sheet name="资源搜索" sheetId="4" r:id="rId4"/>
     <sheet name="学校网站" sheetId="5" r:id="rId5"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="251">
   <si>
     <t>https://www.bilibili.com</t>
   </si>
@@ -453,10 +453,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>擅长吸血的学术平台</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.iprdb.com/</t>
   </si>
   <si>
@@ -610,9 +606,6 @@
   </si>
   <si>
     <t>https://img11.18183.com/ku18183/image/2019/08/05/4a99767726318c613bd294fb9f6256d0.png</t>
-  </si>
-  <si>
-    <t>https://ts1.cn.mm.bing.net/th/id/R-C.835fa09c0c991d10889d6cdcd5509f31?rik=6284QdJz8brmgA&amp;pid=ImgRaw&amp;r=0</t>
   </si>
   <si>
     <t>Geekbench</t>
@@ -824,6 +817,95 @@
   </si>
   <si>
     <t>看动漫专属</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国知网知识发现网络平台</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vpn.jlu.edu.cn/https/44696469646131313237446964696461bd6feb2600c6a01e8255e278/</t>
+  </si>
+  <si>
+    <t>https://p1.ssl.qhimg.com/t01262bd40936e6aa5b.png</t>
+  </si>
+  <si>
+    <t>知网VPN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校知网入口</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vpn.jlu.edu.cn/https/44696469646131313237446964696461bd6feb2614cda918ca48e465d26b96f77fb15b71/wos/alldb/basic-search</t>
+  </si>
+  <si>
+    <t>web-of-science</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文查询入口</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.umass.edu/ials/sites/default/files/web-of-science.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.lanzoui.com/b0cw93hih</t>
+  </si>
+  <si>
+    <t>https://bpic.588ku.com/element_origin_min_pic/19/04/23/ccb94aca0ea5f54c35df8b000c052511.jpg</t>
+  </si>
+  <si>
+    <t>定制版本安卓软件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码百分之千</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://web.baimiaoapp.com/</t>
+  </si>
+  <si>
+    <t>https://xlimage.uzero.cn/shinescan/res/shinescanicon.png</t>
+  </si>
+  <si>
+    <t>OCR神器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>白描</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://c.runoob.com/</t>
+  </si>
+  <si>
+    <t>https://marketplace.canva.cn/TvAXY/MACFJVTvAXY/2/tl/canva-MACFJVTvAXY.png</t>
+  </si>
+  <si>
+    <t>菜鸟工具</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序员在线工具</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ol.woobx.cn/</t>
+  </si>
+  <si>
+    <t>https://img.ixintu.com/download/jpg/20200823/c2c8462615c8feef6fa01d2a74d36bae_512_512.jpg!ys</t>
+  </si>
+  <si>
+    <t>一个木涵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线工具合集</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1807,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1818,21 +1900,21 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="49.75" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="40.375" customWidth="1"/>
+    <col min="4" max="4" width="74.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
         <v>197</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>198</v>
-      </c>
-      <c r="C1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1840,7 +1922,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1854,7 +1936,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -1865,85 +1947,113 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>205</v>
+      <c r="A5" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1951,9 +2061,10 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{0A2A227C-447C-48D9-8326-B27871E68E1E}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{C436FAA0-82BA-4F4A-A329-BC81E135CC03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1969,72 +2080,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
         <v>133</v>
-      </c>
-      <c r="B1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
         <v>136</v>
       </c>
-      <c r="B2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>137</v>
-      </c>
-      <c r="D2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
         <v>139</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>140</v>
       </c>
-      <c r="C3" t="s">
-        <v>141</v>
-      </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
         <v>142</v>
       </c>
-      <c r="B4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
-      </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
         <v>189</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>190</v>
-      </c>
-      <c r="C5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B824978-CF9B-4EE7-8220-F7FA8D248EE5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -2117,10 +2228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1060A421-6373-42FB-B541-35DA081696A4}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2133,93 +2244,104 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>187</v>
+      <c r="A2" t="s">
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C436FAA0-82BA-4F4A-A329-BC81E135CC03}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2228,7 +2350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68B3FA4-4A17-4F7A-AD46-0A05445CD253}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2259,7 +2381,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -2284,30 +2406,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
         <v>212</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>213</v>
-      </c>
-      <c r="C4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" t="s">
         <v>220</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>221</v>
-      </c>
-      <c r="C5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2326,30 +2448,30 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" t="s">
         <v>209</v>
       </c>
-      <c r="B7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" t="s">
-        <v>211</v>
-      </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" t="s">
         <v>224</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>225</v>
-      </c>
-      <c r="C8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2360,15 +2482,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D7A818-0C91-4616-82A3-32441E237D55}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="55.375" customWidth="1"/>
+    <col min="2" max="2" width="58.375" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="5" width="48.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -2457,7 +2585,7 @@
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>107</v>
@@ -2492,6 +2620,34 @@
       </c>
       <c r="D9" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2515,7 +2671,7 @@
         <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
         <v>115</v>
@@ -2529,7 +2685,7 @@
         <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
@@ -2543,7 +2699,7 @@
         <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
         <v>120</v>
@@ -2557,7 +2713,7 @@
         <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
         <v>121</v>
@@ -2574,73 +2730,97 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE0828D-32CE-4E98-9846-7CBA763EF0B3}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="35.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
         <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>130</v>
+        <v>231</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" t="s">
         <v>193</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D5" t="s">
         <v>194</v>
-      </c>
-      <c r="C4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{A8DEDCDC-38BE-4BF2-90BA-BCB21D74292B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2648,41 +2828,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA20531-30AD-43B2-9501-05814E56D08F}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
         <v>180</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>181</v>
-      </c>
-      <c r="C1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
         <v>184</v>
-      </c>
-      <c r="C2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2690,7 +2872,7 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
@@ -2712,11 +2894,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB7EE10-2394-4DC6-BC26-9DF495B27F85}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -2726,7 +2914,7 @@
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" t="s">
         <v>79</v>
@@ -2737,7 +2925,7 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
@@ -2765,7 +2953,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2801,72 +2989,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
         <v>144</v>
       </c>
-      <c r="B1" t="s">
-        <v>145</v>
-      </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
         <v>162</v>
       </c>
-      <c r="B5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>163</v>
-      </c>
-      <c r="D5" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/option.xlsx
+++ b/option.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailsjlueducn-my.sharepoint.com/personal/tqwang21_mails_jlu_edu_cn/Documents/文档/文档/Github/navigation_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="487" documentId="8_{6A052DFE-4207-4F86-A5C1-1D8E0F17106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06BE2DFB-093D-4A2B-9F32-2531E1370555}"/>
+  <xr:revisionPtr revIDLastSave="497" documentId="8_{6A052DFE-4207-4F86-A5C1-1D8E0F17106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34FA82DE-957F-473A-A92A-72457EEFF110}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常用网站" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="255">
   <si>
     <t>https://www.bilibili.com</t>
   </si>
@@ -356,9 +356,6 @@
     <t>http://www.yckceo.com/</t>
   </si>
   <si>
-    <t>http://www.yckceo.com/favicon.ico</t>
-  </si>
-  <si>
     <t>阅读和异次元仓库</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -454,9 +451,6 @@
   </si>
   <si>
     <t>https://www.iprdb.com/</t>
-  </si>
-  <si>
-    <t>https://www.iprdb.com/favicon.ico</t>
   </si>
   <si>
     <t>知嘟嘟</t>
@@ -789,9 +783,6 @@
     <t>https://bpic.588ku.com/element_pic/20/06/30/f8efc6337b5427689af9838e4fdc3ec2.jpg</t>
   </si>
   <si>
-    <t>https://ts1.cn.mm.bing.net/th/id/R-C.20231e4e72c4e8d7e844cdc306e6c602?rik=n6vgG1jUdfVksg&amp;riu=http%3a%2f%2fbpic.588ku.com%2felement_pic%2f00%2f85%2f53%2f1156e916d95db0c.jpg&amp;ehk=4zUTD%2bTinquF%2b5oogW%2fw6ojTZaWGveIo%2fKc2ZcJ4Mbo%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0&amp;sres=1&amp;sresct=1</t>
-  </si>
-  <si>
     <t>http://www.yilonghd.com/detail/id-46411.html</t>
   </si>
   <si>
@@ -907,13 +898,35 @@
   <si>
     <t>在线工具合集</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.niceso.net/</t>
+  </si>
+  <si>
+    <t>https://ts1.cn.mm.bing.net/th/id/R-C.fde8242e1eee1aa12ca80acdaa6641ac?rik=%2b4dvkZ8A6%2bsO6Q&amp;riu=http%3a%2f%2fis5.mzstatic.com%2fimage%2fthumb%2fPurple122%2fv4%2fb3%2f37%2fe4%2fb337e4a5-9f54-108b-5e94-ce3870e6bf3d%2fsource%2f512x512bb.jpg&amp;ehk=ib5qzXcJZI8RneZ3pydtDA6jlnLJzSrB%2fwOQ%2fyAsk58%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>奈斯搜索</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚持做最好用的阿里云盘资源搜索引擎</t>
+  </si>
+  <si>
+    <t>https://img1.dxycdn.com/2020/0510/967/3412438985875230518-14.png</t>
+  </si>
+  <si>
+    <t>https://tse1-mm.cn.bing.net/th/id/OIP-C.D_Gm8IGCvkqmOgtU2hueVwHaHS?pid=ImgDet&amp;rs=1</t>
+  </si>
+  <si>
+    <t>https://i.52112.com/icon/256/20190116/28045/1395324.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1090,6 +1103,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1519,7 +1538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1527,6 +1546,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1586,10 +1608,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1892,7 +1910,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1905,16 +1923,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
         <v>195</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>196</v>
-      </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1922,7 +1940,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1936,7 +1954,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -1961,44 +1979,44 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
         <v>199</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>200</v>
-      </c>
-      <c r="C6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" t="s">
         <v>203</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>204</v>
-      </c>
-      <c r="C7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2006,7 +2024,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -2034,13 +2052,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2048,10 +2066,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -2080,72 +2098,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" t="s">
-        <v>134</v>
-      </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
         <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
         <v>138</v>
       </c>
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" t="s">
-        <v>140</v>
-      </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" t="s">
         <v>187</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>188</v>
-      </c>
-      <c r="C5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2158,7 +2176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B824978-CF9B-4EE7-8220-F7FA8D248EE5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -2244,16 +2262,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
         <v>128</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>129</v>
-      </c>
-      <c r="C1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2289,7 +2307,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -2300,44 +2318,44 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
         <v>239</v>
       </c>
-      <c r="B5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" t="s">
-        <v>242</v>
-      </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" t="s">
         <v>243</v>
-      </c>
-      <c r="B6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" t="s">
         <v>247</v>
-      </c>
-      <c r="B7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2381,7 +2399,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -2406,30 +2424,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
         <v>210</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>211</v>
-      </c>
-      <c r="C4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" t="s">
         <v>218</v>
-      </c>
-      <c r="B5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2448,30 +2466,30 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="s">
         <v>207</v>
       </c>
-      <c r="B7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" t="s">
-        <v>209</v>
-      </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" t="s">
         <v>222</v>
-      </c>
-      <c r="B8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2482,10 +2500,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D7A818-0C91-4616-82A3-32441E237D55}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2496,46 +2514,46 @@
     <col min="4" max="5" width="48.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2543,110 +2561,124 @@
         <v>95</v>
       </c>
       <c r="B4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
         <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>105</v>
+        <v>250</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2668,58 +2700,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" t="s">
-        <v>115</v>
-      </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2733,7 +2765,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2746,72 +2778,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" t="s">
         <v>227</v>
-      </c>
-      <c r="B2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
         <v>124</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>125</v>
-      </c>
-      <c r="C4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
         <v>191</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>192</v>
-      </c>
-      <c r="C5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2841,30 +2873,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
         <v>178</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>179</v>
-      </c>
-      <c r="C1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
         <v>182</v>
-      </c>
-      <c r="C2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2872,7 +2904,7 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
@@ -2895,7 +2927,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2914,7 +2946,7 @@
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
         <v>79</v>
@@ -2925,7 +2957,7 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
@@ -2953,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2989,72 +3021,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" t="s">
         <v>161</v>
-      </c>
-      <c r="B5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/option.xlsx
+++ b/option.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailsjlueducn-my.sharepoint.com/personal/tqwang21_mails_jlu_edu_cn/Documents/文档/文档/Github/navigation_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="497" documentId="8_{6A052DFE-4207-4F86-A5C1-1D8E0F17106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34FA82DE-957F-473A-A92A-72457EEFF110}"/>
+  <xr:revisionPtr revIDLastSave="511" documentId="8_{6A052DFE-4207-4F86-A5C1-1D8E0F17106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B73508E9-DE96-47CD-99CD-8CAFDE424674}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常用网站" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="263">
   <si>
     <t>https://www.bilibili.com</t>
   </si>
@@ -752,9 +752,6 @@
     <t>https://www.wuji7.com/</t>
   </si>
   <si>
-    <t>https://cn.bing.com/images/search?view=detailV2&amp;ccid=iyKUQEol&amp;id=5392859FA2A1271B7EA86B70569B1407F1B583E0&amp;thid=OIP.iyKUQEolu5F1pIm-gvaOqgHaHa&amp;mediaurl=https%3a%2f%2fpic2.zhimg.com%2f50%2fv2-fa36c32975c7bf4555d62f9fd2629fc2_xs.jpg%3fsource%3d57bbeac9&amp;exph=640&amp;expw=640&amp;q=%e6%97%a0%e6%9e%81%e5%bd%b1%e8%a7%86&amp;simid=607992740592157048&amp;FORM=IRPRST&amp;ck=D8627C1F28AFC12920A6DD487931AF34&amp;selectedIndex=10&amp;qft=+filterui%3aaspect-square</t>
-  </si>
-  <si>
     <t>无极影视</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -920,6 +917,37 @@
   </si>
   <si>
     <t>https://i.52112.com/icon/256/20190116/28045/1395324.png</t>
+  </si>
+  <si>
+    <t>https://lol.qq.com/tft/#/index</t>
+  </si>
+  <si>
+    <t>https://tse2-mm.cn.bing.net/th/id/OIP-C.7dorzWgrtkwhpla4l6XXQwHaHa?pid=ImgDet&amp;rs=1</t>
+  </si>
+  <si>
+    <t>云顶之役</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>云顶之役主题站</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.op.gg/</t>
+  </si>
+  <si>
+    <t>https://opgg-com-image.akamaized.net/attach/images/20190709093216.131963.png</t>
+  </si>
+  <si>
+    <t>OP.GG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄联盟战绩攻略查询</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.zcool.cn/community/01564e5a449e2aa801206ed3b160c3.png@1280w_1l_2o_100sh.png</t>
   </si>
 </sst>
 </file>
@@ -1608,6 +1636,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1954,7 +1986,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -2318,44 +2350,44 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" t="s">
         <v>236</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" t="s">
         <v>237</v>
-      </c>
-      <c r="C5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" t="s">
         <v>240</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>241</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>242</v>
-      </c>
-      <c r="D6" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" t="s">
         <v>244</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>245</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>246</v>
-      </c>
-      <c r="D7" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2368,8 +2400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68B3FA4-4A17-4F7A-AD46-0A05445CD253}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2399,7 +2431,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -2424,30 +2456,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
         <v>208</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>209</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>210</v>
-      </c>
-      <c r="D4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" t="s">
         <v>215</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>216</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>217</v>
-      </c>
-      <c r="D5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2469,27 +2501,27 @@
         <v>205</v>
       </c>
       <c r="B7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" t="s">
         <v>206</v>
       </c>
-      <c r="C7" t="s">
-        <v>207</v>
-      </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" t="s">
         <v>219</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>220</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>221</v>
-      </c>
-      <c r="D8" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2502,14 +2534,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D7A818-0C91-4616-82A3-32441E237D55}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.375" customWidth="1"/>
-    <col min="2" max="2" width="58.375" customWidth="1"/>
+    <col min="2" max="2" width="85.75" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
     <col min="4" max="5" width="48.75" customWidth="1"/>
   </cols>
@@ -2561,7 +2593,7 @@
         <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
         <v>97</v>
@@ -2586,16 +2618,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" t="s">
         <v>248</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>249</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2656,16 +2688,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" t="s">
         <v>232</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>233</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>234</v>
-      </c>
-      <c r="D11" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2781,41 +2813,41 @@
         <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C1" t="s">
         <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" t="s">
         <v>224</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>225</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>226</v>
-      </c>
-      <c r="D2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>229</v>
-      </c>
-      <c r="D3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2823,7 +2855,7 @@
         <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -2858,10 +2890,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA20531-30AD-43B2-9501-05814E56D08F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2911,6 +2943,34 @@
       </c>
       <c r="D3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +3017,7 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
@@ -2985,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>

--- a/option.xlsx
+++ b/option.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailsjlueducn-my.sharepoint.com/personal/tqwang21_mails_jlu_edu_cn/Documents/文档/文档/Github/navigation_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="511" documentId="8_{6A052DFE-4207-4F86-A5C1-1D8E0F17106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B73508E9-DE96-47CD-99CD-8CAFDE424674}"/>
+  <xr:revisionPtr revIDLastSave="532" documentId="8_{6A052DFE-4207-4F86-A5C1-1D8E0F17106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5467729E-F669-478F-B5E1-3B095FACFF9E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2160" yWindow="2160" windowWidth="25830" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常用网站" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="268">
   <si>
     <t>https://www.bilibili.com</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>QQ邮箱</t>
-  </si>
-  <si>
-    <t>QQ邮箱，常联系</t>
   </si>
   <si>
     <t>https://www.zhihu.com</t>
@@ -812,35 +809,9 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://vpn.jlu.edu.cn/https/44696469646131313237446964696461bd6feb2600c6a01e8255e278/</t>
-  </si>
-  <si>
     <t>https://p1.ssl.qhimg.com/t01262bd40936e6aa5b.png</t>
   </si>
   <si>
-    <t>知网VPN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校知网入口</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://vpn.jlu.edu.cn/https/44696469646131313237446964696461bd6feb2614cda918ca48e465d26b96f77fb15b71/wos/alldb/basic-search</t>
-  </si>
-  <si>
-    <t>web-of-science</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>论文查询入口</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.umass.edu/ials/sites/default/files/web-of-science.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://pan.lanzoui.com/b0cw93hih</t>
   </si>
   <si>
@@ -948,6 +919,52 @@
   </si>
   <si>
     <t>https://img.zcool.cn/community/01564e5a449e2aa801206ed3b160c3.png@1280w_1l_2o_100sh.png</t>
+  </si>
+  <si>
+    <t>http://www.seek68.org/index.html</t>
+  </si>
+  <si>
+    <t>https://pic3.zhimg.com/v2-80bc76da7d3c1379b75274dab1ea1dbe_b.jpg</t>
+  </si>
+  <si>
+    <t>seek68</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌学术镜像站</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tvfan.xxooo.cf/</t>
+  </si>
+  <si>
+    <t>玩偶哥哥</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4K高清</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ts1.cn.mm.bing.net/th/id/R-C.4fab02a4aac42742d1d4c67fc8f2af49?rik=I7T7qVuFlPUEcw&amp;riu=http%3a%2f%2fpic.616pic.com%2fys_bnew_img%2f00%2f08%2f24%2fnUVxaYEsS9.jpg&amp;ehk=qLqYUDekI%2fag9nU7VuaIpNtUbriAmdJaZiXxgh0sjFA%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>https://mail.google.com/</t>
+  </si>
+  <si>
+    <t>https://logodownload.org/wp-content/uploads/2018/03/gmail-logo-0.png</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌邮箱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ邮箱，常联系</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1939,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1955,44 +1972,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
         <v>193</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>194</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>195</v>
-      </c>
-      <c r="D1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2006,105 +2023,119 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" t="s">
         <v>173</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>174</v>
-      </c>
-      <c r="D5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2130,72 +2161,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
         <v>130</v>
-      </c>
-      <c r="B1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
         <v>136</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>137</v>
       </c>
-      <c r="C3" t="s">
-        <v>138</v>
-      </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
         <v>139</v>
       </c>
-      <c r="B4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" t="s">
-        <v>140</v>
-      </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
         <v>185</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>186</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>187</v>
-      </c>
-      <c r="D5" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2216,58 +2247,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2294,100 +2325,100 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>128</v>
-      </c>
-      <c r="D1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2400,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68B3FA4-4A17-4F7A-AD46-0A05445CD253}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2428,100 +2459,100 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" t="s">
         <v>207</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>208</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>209</v>
-      </c>
-      <c r="D4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" t="s">
         <v>214</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>215</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>216</v>
-      </c>
-      <c r="D5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" t="s">
         <v>205</v>
       </c>
-      <c r="B7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" t="s">
-        <v>206</v>
-      </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" t="s">
         <v>218</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>219</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>220</v>
-      </c>
-      <c r="D8" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2532,10 +2563,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D7A818-0C91-4616-82A3-32441E237D55}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2548,170 +2579,184 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>93</v>
-      </c>
-      <c r="D1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
         <v>84</v>
       </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
       <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
         <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
         <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
         <v>98</v>
       </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
         <v>102</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>103</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
         <v>105</v>
       </c>
-      <c r="B8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
         <v>107</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>108</v>
       </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
         <v>110</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>111</v>
       </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
-        <v>49</v>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2725,65 +2770,70 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.125" customWidth="1"/>
+    <col min="2" max="2" width="37.875" customWidth="1"/>
+    <col min="4" max="4" width="37.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" t="s">
-        <v>116</v>
-      </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2794,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE0828D-32CE-4E98-9846-7CBA763EF0B3}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2810,81 +2860,64 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{A8DEDCDC-38BE-4BF2-90BA-BCB21D74292B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2892,7 +2925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA20531-30AD-43B2-9501-05814E56D08F}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2905,72 +2938,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" t="s">
         <v>176</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>177</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>178</v>
-      </c>
-      <c r="D1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
         <v>180</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>181</v>
-      </c>
-      <c r="D2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3000,58 +3033,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3081,72 +3114,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" t="s">
-        <v>142</v>
-      </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
         <v>159</v>
       </c>
-      <c r="B5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>160</v>
-      </c>
-      <c r="D5" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
